--- a/results/mp/logistic/corona/confidence/42/masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,27 +43,27 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>die</t>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>fears</t>
   </si>
   <si>
@@ -94,21 +94,15 @@
     <t>co</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
+    <t>to</t>
+  </si>
+  <si>
     <t>the</t>
   </si>
   <si>
-    <t>to</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -118,73 +112,76 @@
     <t>best</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>care</t>
   </si>
   <si>
     <t>relief</t>
@@ -193,12 +190,6 @@
     <t>share</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
@@ -208,10 +199,16 @@
     <t>you</t>
   </si>
   <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>and</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>,</t>
@@ -575,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -583,10 +580,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -644,13 +641,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8235294117647058</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -662,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K3">
         <v>0.9565217391304348</v>
@@ -694,37 +691,37 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8157894736842105</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D4">
-        <v>31</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>7</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -736,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -744,13 +741,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8055555555555556</v>
+        <v>0.815068493150685</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -762,19 +759,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K5">
-        <v>0.8916666666666667</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L5">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="M5">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -794,13 +791,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8047945205479452</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C6">
-        <v>235</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>235</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -812,19 +809,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K6">
-        <v>0.8611111111111112</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -836,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -844,7 +841,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7567567567567568</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C7">
         <v>28</v>
@@ -862,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K7">
-        <v>0.8482142857142857</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L7">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="M7">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -886,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -894,13 +891,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5608465608465608</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="C8">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="D8">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -912,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K8">
-        <v>0.8448275862068966</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L8">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="M8">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -944,13 +941,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5423728813559322</v>
+        <v>0.5368217054263565</v>
       </c>
       <c r="C9">
-        <v>32</v>
+        <v>277</v>
       </c>
       <c r="D9">
-        <v>32</v>
+        <v>277</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -962,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>27</v>
+        <v>239</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K9">
-        <v>0.8381201044386423</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L9">
-        <v>321</v>
+        <v>85</v>
       </c>
       <c r="M9">
-        <v>321</v>
+        <v>85</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -986,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -994,13 +991,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5329457364341085</v>
+        <v>0.5343915343915344</v>
       </c>
       <c r="C10">
-        <v>275</v>
+        <v>101</v>
       </c>
       <c r="D10">
-        <v>275</v>
+        <v>101</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1012,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>241</v>
+        <v>88</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K10">
-        <v>0.8333333333333334</v>
+        <v>0.7989556135770235</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1036,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1044,13 +1041,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5294117647058824</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1062,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K11">
-        <v>0.79375</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="L11">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="M11">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1086,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1094,13 +1091,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4966442953020134</v>
+        <v>0.4697986577181208</v>
       </c>
       <c r="C12">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D12">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1112,19 +1109,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K12">
-        <v>0.7692307692307693</v>
+        <v>0.78125</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1136,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1144,13 +1141,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4533333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="C13">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D13">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1162,19 +1159,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K13">
-        <v>0.7676056338028169</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1186,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1194,13 +1191,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4166666666666667</v>
+        <v>0.3944444444444444</v>
       </c>
       <c r="C14">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D14">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1212,19 +1209,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K14">
-        <v>0.765625</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L14">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="M14">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1236,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1244,49 +1241,49 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3333333333333333</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="C15">
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>64</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15">
+        <v>0.765625</v>
+      </c>
+      <c r="L15">
+        <v>98</v>
+      </c>
+      <c r="M15">
+        <v>98</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>30</v>
-      </c>
-      <c r="D15">
-        <v>30</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>60</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15">
-        <v>0.7641509433962265</v>
-      </c>
-      <c r="L15">
-        <v>81</v>
-      </c>
-      <c r="M15">
-        <v>81</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1294,13 +1291,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2857142857142857</v>
+        <v>0.2658730158730159</v>
       </c>
       <c r="C16">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D16">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1312,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K16">
         <v>0.7575757575757576</v>
@@ -1344,13 +1341,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1501340482573726</v>
+        <v>0.1742627345844504</v>
       </c>
       <c r="C17">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D17">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1362,19 +1359,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K17">
-        <v>0.7560975609756098</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="L17">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="M17">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1386,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1394,13 +1391,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D18">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1412,19 +1409,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K18">
-        <v>0.7446808510638298</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L18">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M18">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1436,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1444,37 +1441,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01987315010570825</v>
+        <v>0.01815878378378378</v>
       </c>
       <c r="C19">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D19">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E19">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="F19">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>2318</v>
+        <v>2325</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K19">
-        <v>0.7441860465116279</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L19">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1486,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1494,37 +1491,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0148578811369509</v>
+        <v>0.01484349790254921</v>
       </c>
       <c r="C20">
         <v>46</v>
       </c>
       <c r="D20">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E20">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="F20">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>3050</v>
+        <v>3053</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K20">
-        <v>0.7291666666666666</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L20">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M20">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1536,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1544,37 +1541,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0117096018735363</v>
+        <v>0.0106962663975782</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D21">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="E21">
-        <v>0.24</v>
+        <v>0.44</v>
       </c>
       <c r="F21">
-        <v>0.76</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>2110</v>
+        <v>4902</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K21">
-        <v>0.6825396825396826</v>
+        <v>0.7</v>
       </c>
       <c r="L21">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1586,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1594,37 +1591,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.01134380453752181</v>
+        <v>0.009097270818754374</v>
       </c>
       <c r="C22">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D22">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="E22">
-        <v>0.4</v>
+        <v>0.51</v>
       </c>
       <c r="F22">
-        <v>0.6</v>
+        <v>0.49</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>2266</v>
+        <v>4248</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K22">
-        <v>0.675</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1636,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1644,137 +1641,89 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.008881711748082357</v>
+        <v>0.007795751315533035</v>
       </c>
       <c r="C23">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D23">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E23">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="F23">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>4910</v>
+        <v>5091</v>
       </c>
       <c r="J23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23">
+        <v>0.6352941176470588</v>
+      </c>
+      <c r="L23">
+        <v>216</v>
+      </c>
+      <c r="M23">
+        <v>216</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="J24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24">
+        <v>0.6122448979591837</v>
+      </c>
+      <c r="L24">
+        <v>180</v>
+      </c>
+      <c r="M24">
+        <v>181</v>
+      </c>
+      <c r="N24">
+        <v>0.99</v>
+      </c>
+      <c r="O24">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K23">
-        <v>0.65</v>
-      </c>
-      <c r="L23">
-        <v>221</v>
-      </c>
-      <c r="M23">
-        <v>221</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.008390243902439025</v>
-      </c>
-      <c r="C24">
-        <v>43</v>
-      </c>
-      <c r="D24">
-        <v>83</v>
-      </c>
-      <c r="E24">
-        <v>0.48</v>
-      </c>
-      <c r="F24">
-        <v>0.52</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>5082</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K24">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="L24">
-        <v>40</v>
-      </c>
-      <c r="M24">
-        <v>40</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.007462686567164179</v>
-      </c>
-      <c r="C25">
-        <v>32</v>
-      </c>
-      <c r="D25">
-        <v>72</v>
-      </c>
-      <c r="E25">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="F25">
-        <v>0.4399999999999999</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>4256</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="K25">
-        <v>0.5957446808510638</v>
+        <v>0.606694560669456</v>
       </c>
       <c r="L25">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="M25">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1786,21 +1735,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>38</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K26">
-        <v>0.5899581589958159</v>
+        <v>0.6</v>
       </c>
       <c r="L26">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="M26">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1812,21 +1761,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>98</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K27">
-        <v>0.5898305084745763</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L27">
-        <v>174</v>
+        <v>53</v>
       </c>
       <c r="M27">
-        <v>174</v>
+        <v>53</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1838,21 +1787,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>121</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K28">
-        <v>0.5600000000000001</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="L28">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="M28">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1864,21 +1813,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K29">
-        <v>0.5571428571428572</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L29">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="M29">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1890,21 +1839,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K30">
-        <v>0.5168539325842697</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L30">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="M30">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1916,21 +1865,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K31">
-        <v>0.4901960784313725</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L31">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M31">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1942,21 +1891,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K32">
-        <v>0.4246575342465753</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L32">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M32">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1968,241 +1917,267 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K33">
-        <v>0.3333333333333333</v>
+        <v>0.04602510460251046</v>
       </c>
       <c r="L33">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="M33">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>52</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K34">
-        <v>0.04090150250417363</v>
+        <v>0.02206461780929866</v>
       </c>
       <c r="L34">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="M34">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N34">
-        <v>0.96</v>
+        <v>0.58</v>
       </c>
       <c r="O34">
-        <v>0.04000000000000004</v>
+        <v>0.42</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>1149</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K35">
-        <v>0.02037735849056604</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="L35">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="N35">
-        <v>0.7</v>
+        <v>0.76</v>
       </c>
       <c r="O35">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>2596</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K36">
-        <v>0.01799916282963583</v>
+        <v>0.01590623691921306</v>
       </c>
       <c r="L36">
+        <v>38</v>
+      </c>
+      <c r="M36">
         <v>43</v>
       </c>
-      <c r="M36">
-        <v>48</v>
-      </c>
       <c r="N36">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="O36">
-        <v>0.09999999999999998</v>
+        <v>0.12</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>2346</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K37">
-        <v>0.01070399341292713</v>
+        <v>0.01503759398496241</v>
       </c>
       <c r="L37">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="M37">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="N37">
-        <v>0.62</v>
+        <v>0.75</v>
       </c>
       <c r="O37">
-        <v>0.38</v>
+        <v>0.25</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>2403</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K38">
-        <v>0.01066499372647428</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="L38">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M38">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="N38">
-        <v>0.72</v>
+        <v>0.64</v>
       </c>
       <c r="O38">
-        <v>0.28</v>
+        <v>0.36</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>3154</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="K39">
-        <v>0.00931098696461825</v>
+        <v>0.01005340873389884</v>
       </c>
       <c r="L39">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M39">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="N39">
-        <v>0.5600000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="O39">
-        <v>0.4399999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>4256</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K40">
-        <v>0.008481421647819063</v>
+        <v>0.009559337840988575</v>
       </c>
       <c r="L40">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M40">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N40">
+        <v>0.51</v>
+      </c>
+      <c r="O40">
         <v>0.49</v>
       </c>
-      <c r="O40">
-        <v>0.51</v>
-      </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>4910</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K41">
-        <v>0.007809449433814916</v>
+        <v>0.008294557960752579</v>
       </c>
       <c r="L41">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M41">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="N41">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="O41">
-        <v>0.52</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>5082</v>
+        <v>4902</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K42">
+        <v>0.006634146341463414</v>
+      </c>
+      <c r="L42">
+        <v>34</v>
+      </c>
+      <c r="M42">
+        <v>74</v>
+      </c>
+      <c r="N42">
+        <v>0.46</v>
+      </c>
+      <c r="O42">
+        <v>0.54</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>5091</v>
       </c>
     </row>
   </sheetData>
